--- a/tmp/EP14/EP14-recap-detailed.xlsx
+++ b/tmp/EP14/EP14-recap-detailed.xlsx
@@ -512,10 +512,10 @@
         <v>10</v>
       </c>
       <c r="C4" t="n">
-        <v>1869</v>
+        <v>1765</v>
       </c>
       <c r="D4" t="n">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5">
@@ -528,10 +528,10 @@
         <v>12</v>
       </c>
       <c r="C5" t="n">
-        <v>1497</v>
+        <v>1416</v>
       </c>
       <c r="D5" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6">
@@ -544,7 +544,7 @@
         <v>3</v>
       </c>
       <c r="C6" t="n">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="D6" t="n">
         <v>3</v>
@@ -560,7 +560,7 @@
         <v>4</v>
       </c>
       <c r="C7" t="n">
-        <v>787</v>
+        <v>762</v>
       </c>
       <c r="D7" t="n">
         <v>20</v>
@@ -576,10 +576,10 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="D8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
